--- a/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -621,13 +621,13 @@
         <v>0.7983281086729362</v>
       </c>
       <c r="I2">
-        <v>0.05524947294448349</v>
+        <v>0.05501054111033029</v>
       </c>
       <c r="J2">
         <v>0.8</v>
       </c>
       <c r="K2">
-        <v>170.24</v>
+        <v>169.56</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7922032718412809</v>
+        <v>0.7897667942916812</v>
       </c>
       <c r="I3">
-        <v>0.05875280322066413</v>
+        <v>0.05988760098349139</v>
       </c>
       <c r="J3">
         <v>0.7692307692307693</v>
       </c>
       <c r="K3">
-        <v>180.7692307692308</v>
+        <v>184</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -758,31 +758,31 @@
         <v>23</v>
       </c>
       <c r="R3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3">
         <v>66</v>
       </c>
       <c r="T3">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U3">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="V3">
         <v>2824</v>
       </c>
       <c r="W3">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="X3">
         <v>2781</v>
       </c>
       <c r="Y3">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="Z3">
-        <v>2618</v>
+        <v>2613</v>
       </c>
       <c r="AA3">
         <v>24</v>
@@ -803,16 +803,16 @@
         <v>0.9919210000000001</v>
       </c>
       <c r="AG3">
-        <v>0.989463</v>
+        <v>0.989111</v>
       </c>
       <c r="AH3">
         <v>0.976818</v>
       </c>
       <c r="AI3">
-        <v>0.952933</v>
+        <v>0.953635</v>
       </c>
       <c r="AJ3">
-        <v>0.919564</v>
+        <v>0.917808</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7897667942916812</v>
+        <v>0.7876783849634529</v>
       </c>
       <c r="I3">
-        <v>0.05988760098349139</v>
+        <v>0.06610196968468833</v>
       </c>
       <c r="J3">
         <v>0.7692307692307693</v>
       </c>
       <c r="K3">
-        <v>184</v>
+        <v>201.6923076923077</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -755,34 +755,34 @@
         <v>23</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="R3">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="S3">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="T3">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="U3">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="V3">
-        <v>2824</v>
+        <v>2801</v>
       </c>
       <c r="W3">
-        <v>2816</v>
+        <v>2793</v>
       </c>
       <c r="X3">
-        <v>2781</v>
+        <v>2758</v>
       </c>
       <c r="Y3">
-        <v>2715</v>
+        <v>2703</v>
       </c>
       <c r="Z3">
-        <v>2613</v>
+        <v>2589</v>
       </c>
       <c r="AA3">
         <v>24</v>
@@ -800,19 +800,19 @@
         <v>3</v>
       </c>
       <c r="AF3">
-        <v>0.9919210000000001</v>
+        <v>0.983843</v>
       </c>
       <c r="AG3">
-        <v>0.989111</v>
+        <v>0.981033</v>
       </c>
       <c r="AH3">
-        <v>0.976818</v>
+        <v>0.968739</v>
       </c>
       <c r="AI3">
-        <v>0.953635</v>
+        <v>0.94942</v>
       </c>
       <c r="AJ3">
-        <v>0.917808</v>
+        <v>0.909378</v>
       </c>
     </row>
   </sheetData>
